--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\initials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B3D6B-12A3-4A1C-8DE4-ADD48AB41F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D3C18A-BE3E-4719-A6ED-6F7745F164AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment generation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
   <si>
     <t>z = -1</t>
   </si>
@@ -294,6 +294,156 @@
   </si>
   <si>
     <t xml:space="preserve">0.6614112   ,   -3.878549   ,   1.587259   ,   </t>
+  </si>
+  <si>
+    <t>0   ,   2   ,   0   ,   0</t>
+  </si>
+  <si>
+    <t>0   ,   0   ,   2   ,   0</t>
+  </si>
+  <si>
+    <t>4   ,   0   ,   0   ,   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.9254   ,   6.330085   ,   -2.404688   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.42641   ,   5.641258   ,   -1.067676   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.45341   ,   4.706264   ,   -1.252853   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.63861   ,   4.509456   ,   -0.8708496   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0836   ,   4.214244   ,   -0.2978446   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.89841   ,   4.017437   ,   0.08415872   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7407827   ,   2.78723   ,   0.4719867   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.64819   ,   2.688827   ,   0.6629883   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.899284   ,   -5.331876   ,   6.23116   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.008118   ,   -5.43028   ,   6.422162   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.35094   ,   4.003266   ,   -5.65233   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.00088   ,   3.314439   ,   -4.315319   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.87895   ,   2.379445   ,   -4.500495   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.06415   ,   2.182637   ,   -4.118492   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.65806   ,   1.887426   ,   -3.545487   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.47286   ,   1.690618   ,   -3.163484   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.315244   ,   0.4604119   ,   -2.775656   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.22265   ,   0.3620081   ,   -2.584654   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.324823   ,   -7.658694   ,   2.983517   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.58258   ,   -7.757098   ,   3.174519   ,  </t>
+  </si>
+  <si>
+    <t>1   ,   0   ,   0   ,   -1</t>
+  </si>
+  <si>
+    <t>0   ,   1   ,   0   ,   -4</t>
+  </si>
+  <si>
+    <t>0   ,   0   ,   1   ,   3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.58258   ,   -7.757098   ,   3.174519   ,   </t>
+  </si>
+  <si>
+    <t>3.976851   ,   0.1910017   ,   -0.09840383   ,   -1</t>
+  </si>
+  <si>
+    <t>-0.1968077   ,   1.623821   ,   1.163409   ,   -4</t>
+  </si>
+  <si>
+    <t>0.3820033   ,   -1.151835   ,   1.623821   ,   3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.98135   ,   6.330085   ,   -2.404688   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8566   ,   5.641258   ,   -1.067676   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11.36335   ,   4.706264   ,   -1.252853   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.409652   ,   4.509456   ,   -0.8708496   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5209   ,   4.214244   ,   -0.2978446   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4746   ,   4.017437   ,   0.08415872   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1851957   ,   2.78723   ,   0.4719867   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.162046   ,   2.688827   ,   0.6629883   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.724821   ,   -5.331876   ,   6.23116   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.252029   ,   -5.43028   ,   6.422162   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.58773   ,   4.003266   ,   -5.65233   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.25022   ,   3.314439   ,   -4.315319   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.96974   ,   2.379445   ,   -4.500495   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.016036   ,   2.182637   ,   -4.118492   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.914515   ,   1.887426   ,   -3.545487   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.86822   ,   1.690618   ,   -3.163484   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578811   ,   0.4604119   ,   -2.775656   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.555662   ,   0.3620081   ,   -2.584654   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.331206   ,   -7.658694   ,   2.983517   ,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.645645   ,   -7.757098   ,   3.174519   ,   </t>
   </si>
 </sst>
 </file>
@@ -357,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -508,6 +658,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,7 +676,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,38 +788,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -849,6 +1014,372 @@
         <a:xfrm>
           <a:off x="1872155" y="3376448"/>
           <a:ext cx="3711466" cy="1238985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1267810</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2496535</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>696639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAE11D2-67C3-4A5B-A5AE-365908AC62C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3100551" y="5314293"/>
+          <a:ext cx="1228725" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7329</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7329</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1502019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0574DB99-9945-4369-8310-796EA967C24E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1831733" y="6359771"/>
+          <a:ext cx="3773365" cy="1458056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1250674</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2479399</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>698638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EA542E-EC4E-45DA-B33D-8FCC85CAAD42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3089413" y="8274326"/>
+          <a:ext cx="1228725" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>595886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEBABC3-58D2-487C-B1B7-09EDDB1D7536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7628283" y="5292587"/>
+          <a:ext cx="2733261" cy="587603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1258431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5047B1B-FFB8-488B-A3F4-DD0266D8499F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1847022" y="9268239"/>
+          <a:ext cx="3760304" cy="1258431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>314740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>887595</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1225827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803D6E77-9FC1-412F-8B19-DAF9EC90D638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="9582979"/>
+          <a:ext cx="2726334" cy="911087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1288,8 +1819,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="31">
-        <f>INT((C4/10000))-5</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D8" s="31">
         <f>MOD(INT((C4/1000)),10)-4</f>
@@ -1357,7 +1887,7 @@
       </c>
       <c r="D12" s="29">
         <f>C8</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E12" s="29">
         <f>E8</f>
@@ -1408,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1433,10 +1963,10 @@
     </row>
     <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1447,8 +1977,8 @@
     </row>
     <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="33"/>
       <c r="G3" s="11"/>
       <c r="H3" s="34"/>
@@ -1468,10 +1998,10 @@
     </row>
     <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
@@ -1480,8 +2010,8 @@
     </row>
     <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="47"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -1501,10 +2031,10 @@
     </row>
     <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -1514,8 +2044,8 @@
     </row>
     <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -1535,28 +2065,28 @@
     </row>
     <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="47"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
@@ -1576,10 +2106,10 @@
     </row>
     <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
       <c r="H14" s="15"/>
@@ -1591,8 +2121,8 @@
     </row>
     <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="47"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
@@ -1616,10 +2146,10 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -1631,8 +2161,8 @@
     </row>
     <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="47"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -1653,18 +2183,18 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="42" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="43" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="44"/>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="46"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
@@ -1672,12 +2202,12 @@
     </row>
     <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="42"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="44"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -1695,33 +2225,33 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="46"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="47"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="6"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="47"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="13"/>
@@ -1734,10 +2264,10 @@
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
@@ -1748,8 +2278,8 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
@@ -1767,15 +2297,15 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -1786,11 +2316,11 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="47"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -1808,44 +2338,44 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
       <c r="K32" s="44"/>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="38"/>
+      <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
       <c r="K33" s="44"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="40"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -1857,32 +2387,47 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="47"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="40"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -1897,27 +2442,12 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1928,15 +2458,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D60858-96FD-428D-BE82-69C1DB933610}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1950,7 +2480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +2494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1978,7 +2508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1992,7 +2522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2006,39 +2536,65 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
       <c r="E11" t="s">
         <v>65</v>
       </c>
       <c r="I11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
       <c r="E12" t="s">
         <v>66</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="I13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>68</v>
       </c>
       <c r="I14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>69</v>
       </c>
@@ -2046,7 +2602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>70</v>
       </c>
@@ -2054,7 +2610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>71</v>
       </c>
@@ -2062,7 +2618,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>72</v>
       </c>
@@ -2070,7 +2626,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>73</v>
       </c>
@@ -2078,7 +2634,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>74</v>
       </c>
@@ -2086,28 +2642,451 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>94</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+      <c r="M37" s="48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>97</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="M47" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q47" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="M48" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q48" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="M49" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q49" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="M50" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q50" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="M51" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q51" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="M52" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q52" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="M53" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q53" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="M54" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q54" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="M55" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q55" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q56" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\initials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D3C18A-BE3E-4719-A6ED-6F7745F164AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B631D8-7822-471E-9C8E-379D0827F5EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment generation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>z = -1</t>
   </si>
@@ -164,75 +164,6 @@
     <t>Vertices of your letter</t>
   </si>
   <si>
-    <t>-3,3,1</t>
-  </si>
-  <si>
-    <t>4,3,1</t>
-  </si>
-  <si>
-    <t>-3,2,1</t>
-  </si>
-  <si>
-    <t>-1,2,1</t>
-  </si>
-  <si>
-    <t>2,2,1</t>
-  </si>
-  <si>
-    <t>4,2,1</t>
-  </si>
-  <si>
-    <t>0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,1</t>
-  </si>
-  <si>
-    <t>0,-4,1</t>
-  </si>
-  <si>
-    <t>1,-4,1</t>
-  </si>
-  <si>
-    <t>-3,3-1</t>
-  </si>
-  <si>
-    <t>4,3,-1</t>
-  </si>
-  <si>
-    <t>-3,2,-1</t>
-  </si>
-  <si>
-    <t>-1,2,-1</t>
-  </si>
-  <si>
-    <t>2,2,-1</t>
-  </si>
-  <si>
-    <t>4,2,-1</t>
-  </si>
-  <si>
-    <t>0,1,-1</t>
-  </si>
-  <si>
-    <t>1,1,-1</t>
-  </si>
-  <si>
-    <t>0,-4,-1</t>
-  </si>
-  <si>
-    <t>1,-4,-1</t>
-  </si>
-  <si>
-    <t>0.9942126   ,   0.09550083   ,   -0.04920191   ,   0</t>
-  </si>
-  <si>
-    <t>-0.04920191   ,   0.8119106   ,   0.5817047   ,   0</t>
-  </si>
-  <si>
-    <t>0.09550083   ,   -0.5759173   ,   0.8119106   ,   0</t>
-  </si>
-  <si>
     <t>0   ,   0   ,   0   ,   1</t>
   </si>
   <si>
@@ -266,9 +197,6 @@
     <t xml:space="preserve">0.5630074   ,   -2.71514   ,   3.211081   ,   </t>
   </si>
   <si>
-    <t xml:space="preserve">-2.791636   ,   1.771427   ,   -1.438337   ,   </t>
-  </si>
-  <si>
     <t xml:space="preserve">4.312555   ,   1.65722   ,   -2.157659   ,   </t>
   </si>
   <si>
@@ -296,154 +224,16 @@
     <t xml:space="preserve">0.6614112   ,   -3.878549   ,   1.587259   ,   </t>
   </si>
   <si>
-    <t>0   ,   2   ,   0   ,   0</t>
-  </si>
-  <si>
-    <t>0   ,   0   ,   2   ,   0</t>
-  </si>
-  <si>
-    <t>4   ,   0   ,   0   ,   0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.9254   ,   6.330085   ,   -2.404688   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.42641   ,   5.641258   ,   -1.067676   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.45341   ,   4.706264   ,   -1.252853   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.63861   ,   4.509456   ,   -0.8708496   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0836   ,   4.214244   ,   -0.2978446   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.89841   ,   4.017437   ,   0.08415872   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7407827   ,   2.78723   ,   0.4719867   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.64819   ,   2.688827   ,   0.6629883   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.899284   ,   -5.331876   ,   6.23116   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.008118   ,   -5.43028   ,   6.422162   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.35094   ,   4.003266   ,   -5.65233   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.00088   ,   3.314439   ,   -4.315319   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.87895   ,   2.379445   ,   -4.500495   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.06415   ,   2.182637   ,   -4.118492   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.65806   ,   1.887426   ,   -3.545487   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.47286   ,   1.690618   ,   -3.163484   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.315244   ,   0.4604119   ,   -2.775656   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.22265   ,   0.3620081   ,   -2.584654   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.324823   ,   -7.658694   ,   2.983517   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.58258   ,   -7.757098   ,   3.174519   ,  </t>
-  </si>
-  <si>
-    <t>1   ,   0   ,   0   ,   -1</t>
-  </si>
-  <si>
-    <t>0   ,   1   ,   0   ,   -4</t>
-  </si>
-  <si>
-    <t>0   ,   0   ,   1   ,   3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.58258   ,   -7.757098   ,   3.174519   ,   </t>
-  </si>
-  <si>
-    <t>3.976851   ,   0.1910017   ,   -0.09840383   ,   -1</t>
-  </si>
-  <si>
-    <t>-0.1968077   ,   1.623821   ,   1.163409   ,   -4</t>
-  </si>
-  <si>
-    <t>0.3820033   ,   -1.151835   ,   1.623821   ,   3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.98135   ,   6.330085   ,   -2.404688   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8566   ,   5.641258   ,   -1.067676   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.36335   ,   4.706264   ,   -1.252853   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.409652   ,   4.509456   ,   -0.8708496   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5209   ,   4.214244   ,   -0.2978446   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4746   ,   4.017437   ,   0.08415872   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1851957   ,   2.78723   ,   0.4719867   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.162046   ,   2.688827   ,   0.6629883   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.724821   ,   -5.331876   ,   6.23116   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.252029   ,   -5.43028   ,   6.422162   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.58773   ,   4.003266   ,   -5.65233   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.25022   ,   3.314439   ,   -4.315319   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.96974   ,   2.379445   ,   -4.500495   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.016036   ,   2.182637   ,   -4.118492   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.914515   ,   1.887426   ,   -3.545487   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.86822   ,   1.690618   ,   -3.163484   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.578811   ,   0.4604119   ,   -2.775656   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.555662   ,   0.3620081   ,   -2.584654   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.331206   ,   -7.658694   ,   2.983517   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.645645   ,   -7.757098   ,   3.174519   ,   </t>
+    <t>3.976851   ,   0.3820033   ,   -0.1968077   ,   -1</t>
+  </si>
+  <si>
+    <t>-0.09840383   ,   1.623821   ,   1.163409   ,   -4</t>
+  </si>
+  <si>
+    <t>0.1910017   ,   -1.151835   ,   1.623821   ,   3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.646934   ,   2.001633   ,   -2.826165   ,   </t>
   </si>
 </sst>
 </file>
@@ -676,7 +466,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,50 +572,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -974,67 +770,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1248104</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1252123</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD764427-5B61-4B26-82D4-F084C8D671DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1872155" y="3376448"/>
-          <a:ext cx="3711466" cy="1238985"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>1267810</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
@@ -1059,7 +794,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1120,7 +855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1181,7 +916,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1197,67 +932,6 @@
         <a:xfrm>
           <a:off x="3089413" y="8274326"/>
           <a:ext cx="1228725" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>595886</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEBABC3-58D2-487C-B1B7-09EDDB1D7536}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7628283" y="5292587"/>
-          <a:ext cx="2733261" cy="587603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1303,7 +977,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1340,13 +1014,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>314740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>887595</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1770</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1225827</xdr:rowOff>
     </xdr:to>
@@ -1356,6 +1030,128 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803D6E77-9FC1-412F-8B19-DAF9EC90D638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="9534940"/>
+          <a:ext cx="2725920" cy="911087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>347381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1234774</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1131794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15935437-0DFA-4303-8F1F-1119162D6300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11261910"/>
+          <a:ext cx="3655245" cy="784413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257301</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1320801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7518DACB-31B6-4222-8534-A45BDB7495AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,8 +1174,374 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7620000" y="9582979"/>
-          <a:ext cx="2726334" cy="911087"/>
+          <a:off x="1857376" y="12830176"/>
+          <a:ext cx="3733800" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>799211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365E0B06-4644-4287-AB50-58C4A7A93639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2486025" y="14687550"/>
+          <a:ext cx="2657475" cy="713486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1346201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FB73B2-B1D8-4C00-A799-C0C41904A18B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1838325" y="15906751"/>
+          <a:ext cx="3752849" cy="1250950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>326571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>889167</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1115785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA551F2-0680-40BA-9EC6-689DBBB8593B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11307535" y="11348357"/>
+          <a:ext cx="3665025" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>958904</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1371250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A25AF06-D852-47DD-84AC-AE900222BCB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11217089" y="15800294"/>
+          <a:ext cx="3805197" cy="1270397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>885265</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>614019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341AE02B-7E9D-46FC-88D9-4036C5193546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="5255560"/>
+          <a:ext cx="2700618" cy="580400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1255059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1376328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670D167E-3914-4AD3-BD08-AE8E4972D505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1848971" y="3462617"/>
+          <a:ext cx="3731559" cy="1241858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1725,7 +1887,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1739,24 +1901,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="K2" s="28" t="s">
         <v>36</v>
       </c>
@@ -1938,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1963,10 +2125,10 @@
     </row>
     <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1977,8 +2139,8 @@
     </row>
     <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="33"/>
       <c r="G3" s="11"/>
       <c r="H3" s="34"/>
@@ -1998,10 +2160,10 @@
     </row>
     <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
@@ -2010,8 +2172,8 @@
     </row>
     <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -2031,10 +2193,10 @@
     </row>
     <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -2044,8 +2206,8 @@
     </row>
     <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -2065,31 +2227,31 @@
     </row>
     <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="42"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2097,39 +2259,39 @@
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2146,10 +2308,10 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -2161,8 +2323,8 @@
     </row>
     <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -2183,18 +2345,18 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="41" t="s">
+      <c r="G20" s="48"/>
+      <c r="H20" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="50"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
@@ -2202,12 +2364,12 @@
     </row>
     <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -2225,33 +2387,33 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="42"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="6"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="51"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="13"/>
@@ -2264,10 +2426,10 @@
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
@@ -2278,8 +2440,8 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
@@ -2297,15 +2459,15 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -2316,11 +2478,11 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -2338,44 +2500,44 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="43" t="s">
+      <c r="E32" s="42"/>
+      <c r="F32" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="39" t="s">
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="40"/>
+      <c r="M32" s="42"/>
     </row>
     <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="44"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -2387,47 +2549,32 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="50"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -2442,12 +2589,27 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2458,631 +2620,359 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D60858-96FD-428D-BE82-69C1DB933610}">
-  <dimension ref="A1:T69"/>
+  <dimension ref="D2:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="N11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I30" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I31" t="s">
-        <v>89</v>
-      </c>
-      <c r="M31" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I32" t="s">
-        <v>90</v>
-      </c>
-      <c r="M32" s="48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I33" t="s">
-        <v>91</v>
-      </c>
-      <c r="M33" s="48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I35" t="s">
-        <v>93</v>
-      </c>
-      <c r="M35" s="48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I36" t="s">
-        <v>94</v>
-      </c>
-      <c r="M36" s="48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I37" t="s">
-        <v>95</v>
-      </c>
-      <c r="M37" s="48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I38" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M39" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="M47" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q47" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="M48" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q48" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="M49" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q49" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="M50" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q50" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="M51" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q51" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="M52" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q52" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="M53" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q53" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="M54" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q54" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="M55" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q55" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M56" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q56" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>118</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>122</v>
-      </c>
-      <c r="G67" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>123</v>
-      </c>
-      <c r="G68" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>124</v>
-      </c>
-      <c r="G69" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V16" s="37"/>
+    </row>
+    <row r="17" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V17" s="37"/>
+    </row>
+    <row r="18" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V18" s="37"/>
+    </row>
+    <row r="19" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V19" s="37"/>
+    </row>
+    <row r="20" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V20" s="37"/>
+    </row>
+    <row r="21" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V21" s="37"/>
+    </row>
+    <row r="22" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V22" s="37"/>
+    </row>
+    <row r="23" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V23" s="37"/>
+    </row>
+    <row r="24" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V24" s="37"/>
+    </row>
+    <row r="25" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="V25" s="37"/>
+    </row>
+    <row r="29" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="AA29" s="37"/>
+    </row>
+    <row r="30" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M30" s="37"/>
+      <c r="AA30" s="37"/>
+    </row>
+    <row r="31" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M31" s="37"/>
+      <c r="AA31" s="37"/>
+    </row>
+    <row r="32" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M32" s="37"/>
+      <c r="AA32" s="37"/>
+    </row>
+    <row r="33" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="M33" s="37"/>
+      <c r="AA33" s="37"/>
+    </row>
+    <row r="34" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="M34" s="37"/>
+      <c r="AA34" s="37"/>
+    </row>
+    <row r="35" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="M35" s="37"/>
+      <c r="AA35" s="37"/>
+    </row>
+    <row r="36" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="M36" s="37"/>
+      <c r="AA36" s="37"/>
+    </row>
+    <row r="37" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="M37" s="37"/>
+      <c r="AA37" s="37"/>
+    </row>
+    <row r="38" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="M38" s="37"/>
+      <c r="AA38" s="37"/>
+    </row>
+    <row r="39" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="M39" s="37"/>
+    </row>
+    <row r="46" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+    </row>
+    <row r="48" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E48" s="37"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+    </row>
+    <row r="49" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E49" s="37"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+    </row>
+    <row r="50" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E50" s="37"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+    </row>
+    <row r="51" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E51" s="37"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+    </row>
+    <row r="52" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+    </row>
+    <row r="53" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E53" s="37"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+    </row>
+    <row r="54" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+    </row>
+    <row r="55" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+    </row>
+    <row r="56" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="Q56" s="37"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+    </row>
+    <row r="60" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G60" s="37"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="Q60" s="37"/>
+    </row>
+    <row r="61" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G61" s="37"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="Q61" s="37"/>
+    </row>
+    <row r="62" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G62" s="37"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="Q62" s="37"/>
+    </row>
+    <row r="63" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G63" s="37"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="Q63" s="37"/>
+    </row>
+    <row r="64" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G64" s="37"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="Q64" s="37"/>
+    </row>
+    <row r="65" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G65" s="37"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="Q65" s="37"/>
+    </row>
+    <row r="66" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G66" s="37"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="Q66" s="37"/>
+    </row>
+    <row r="67" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="Q67" s="37"/>
+    </row>
+    <row r="68" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G68" s="37"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="Q68" s="37"/>
+    </row>
+    <row r="69" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G69" s="37"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="Q69" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\initials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\Desktop\initials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B631D8-7822-471E-9C8E-379D0827F5EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A0CB1-E258-4A1C-A96F-1BE50C81E0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment generation" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,19 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>z = -1</t>
   </si>
@@ -164,76 +177,10 @@
     <t>Vertices of your letter</t>
   </si>
   <si>
-    <t>0   ,   0   ,   0   ,   1</t>
+    <t>2D</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.745337   ,   3.165042   ,   -1.202344   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.214151   ,   2.820629   ,   -0.5338379   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.840838   ,   2.353132   ,   -0.6264265   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8524129   ,   2.254728   ,   -0.4354248   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.130225   ,   2.107122   ,   -0.1489223   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11865   ,   2.008718   ,   0.04207936   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04629892   ,   1.393615   ,   0.2359933   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.040512   ,   1.344413   ,   0.3314942   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4312052   ,   -2.665938   ,   3.11558   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5630074   ,   -2.71514   ,   3.211081   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.312555   ,   1.65722   ,   -2.157659   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.742434   ,   1.189722   ,   -2.250248   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7540091   ,   1.091318   ,   -2.059246   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.228629   ,   0.9437128   ,   -1.772744   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.217054   ,   0.8453089   ,   -1.581742   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1447027   ,   0.230206   ,   -1.387828   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.138915   ,   0.181004   ,   -1.292327   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3328014   ,   -3.829347   ,   1.491759   ,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6614112   ,   -3.878549   ,   1.587259   ,   </t>
-  </si>
-  <si>
-    <t>3.976851   ,   0.3820033   ,   -0.1968077   ,   -1</t>
-  </si>
-  <si>
-    <t>-0.09840383   ,   1.623821   ,   1.163409   ,   -4</t>
-  </si>
-  <si>
-    <t>0.1910017   ,   -1.151835   ,   1.623821   ,   3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.646934   ,   2.001633   ,   -2.826165   ,   </t>
+    <t>Col1</t>
   </si>
 </sst>
 </file>
@@ -297,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -457,6 +404,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -466,83 +422,83 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -566,62 +522,53 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -641,6 +588,1968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Col1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.37830950000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2173496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41578949999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36542849999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29334519999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2474499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37735289999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3521861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60320070000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57045539999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41855569999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2623743</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45549250000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40681840000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33699469999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2924427</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4190991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3947678</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63975979999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6084965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.34011740000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.18121229999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34669159999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18574009999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.4634779999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1913136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1063422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.703214E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9058549999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0919529999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30801640000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18836030000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31325500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16056989999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.8459459999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1982139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4469740000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.1867289999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3471320000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5777630000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E06A-46CC-AA39-E1C08C096EB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1560424096"/>
+        <c:axId val="1560426176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1560424096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560426176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1560426176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560424096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Col1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.37830950000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2173496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41578949999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36542849999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29334519999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2474499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37735289999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3521861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60320070000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57045539999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41855569999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2623743</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45549250000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40681840000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33699469999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2924427</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4190991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3947678</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63975979999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6084965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.34011740000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.18121229999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34669159999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18574009999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.4634779999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1913136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1063422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.703214E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9058549999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0919529999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30801640000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18836030000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31325500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16056989999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.8459459999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1982139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4469740000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.1867289999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3471320000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5777630000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39A4-478A-8E0E-018C9065EE20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1560424096"/>
+        <c:axId val="1560426176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1560424096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560426176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1560426176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560424096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,67 +2740,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7329</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7329</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1502019</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0574DB99-9945-4369-8310-796EA967C24E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1831733" y="6359771"/>
-          <a:ext cx="3773365" cy="1458056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>1250674</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
@@ -916,7 +2764,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -932,128 +2780,6 @@
         <a:xfrm>
           <a:off x="3089413" y="8274326"/>
           <a:ext cx="1228725" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1258431</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5047B1B-FFB8-488B-A3F4-DD0266D8499F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1847022" y="9268239"/>
-          <a:ext cx="3760304" cy="1258431"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>314740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1770</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1225827</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803D6E77-9FC1-412F-8B19-DAF9EC90D638}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7620000" y="9534940"/>
-          <a:ext cx="2725920" cy="911087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,7 +2825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1115,67 +2841,6 @@
         <a:xfrm>
           <a:off x="1905000" y="11261910"/>
           <a:ext cx="3655245" cy="784413"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1257301</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1320801</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7518DACB-31B6-4222-8534-A45BDB7495AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1857376" y="12830176"/>
-          <a:ext cx="3733800" cy="1244600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,7 +2886,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1237,67 +2902,6 @@
         <a:xfrm>
           <a:off x="2486025" y="14687550"/>
           <a:ext cx="2657475" cy="713486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1257299</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1346201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FB73B2-B1D8-4C00-A799-C0C41904A18B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1838325" y="15906751"/>
-          <a:ext cx="3752849" cy="1250950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1343,7 +2947,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1359,67 +2963,6 @@
         <a:xfrm>
           <a:off x="11307535" y="11348357"/>
           <a:ext cx="3665025" cy="789214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>958904</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1371250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A25AF06-D852-47DD-84AC-AE900222BCB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11217089" y="15800294"/>
-          <a:ext cx="3805197" cy="1270397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,7 +3008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1526,7 +3069,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1558,6 +3101,512 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38421</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1368545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA10572-5562-C3ED-2E69-912BBBC3D76F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1978640" y="6467395"/>
+          <a:ext cx="3963680" cy="1202057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25613</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1312689</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1276819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DB951B-0740-41EB-DC6F-56998735A105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1965832" y="9272068"/>
+          <a:ext cx="3944470" cy="1193575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>313766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>736388</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1093072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BA2545-6CDC-5CEC-1478-0162857335A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8183497" y="9502590"/>
+          <a:ext cx="2574151" cy="779306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1325496</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1229446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E446F5-4591-A1F1-063A-91968A4AE69D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1940219" y="12710672"/>
+          <a:ext cx="3982890" cy="1229446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1209791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B4B389-7D48-8425-6746-01EF3B288492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1940219" y="15758673"/>
+          <a:ext cx="4002100" cy="1209790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>979715</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1219767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4333EF3B-BBEA-3CB2-FC23-DE6A024A94B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11878236" y="15758672"/>
+          <a:ext cx="4034118" cy="1219767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>364253</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>265986</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37C9FC7-703D-56DB-1275-26CEFFCCAD78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="364253" y="14476430"/>
+          <a:ext cx="548072" cy="885428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>432027</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>72798</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Chart 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01C1F6E-5E37-4B86-9BFF-8660A7A4B255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A685E43A-7872-78C2-EB21-4EA8DAF0548D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1890,45 +3939,45 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.69140625" customWidth="1"/>
+    <col min="2" max="2" width="22.53515625" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" customWidth="1"/>
+    <col min="4" max="6" width="9.15234375" customWidth="1"/>
+    <col min="11" max="11" width="39.53515625" customWidth="1"/>
     <col min="12" max="12" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="K2" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,12 +3985,12 @@
         <v>216714</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1953,7 +4002,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1973,7 +4022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1998,7 +4047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2018,7 +4067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -2038,7 +4087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -2056,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -2074,7 +4123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2100,35 +4149,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="1" max="3" width="9.15234375" customWidth="1"/>
+    <col min="4" max="4" width="37.53515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="43.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.15234375" customWidth="1"/>
+    <col min="8" max="8" width="27.53515625" customWidth="1"/>
+    <col min="9" max="9" width="13.3828125" customWidth="1"/>
+    <col min="10" max="10" width="9.15234375" customWidth="1"/>
+    <col min="11" max="11" width="3.69140625" customWidth="1"/>
+    <col min="12" max="12" width="43.15234375" customWidth="1"/>
+    <col min="13" max="13" width="14.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="5"/>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2137,20 +4186,20 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="33"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="33"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="34"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="H4" s="15"/>
@@ -2158,22 +4207,22 @@
       <c r="L4" s="15"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="L5" s="15"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="51"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -2181,7 +4230,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
@@ -2191,12 +4240,12 @@
       <c r="L7" s="15"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -2204,10 +4253,10 @@
       <c r="L8" s="15"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="51"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -2215,7 +4264,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
@@ -2225,76 +4274,76 @@
       <c r="L10" s="15"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="50"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="51"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="51"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="36"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="35"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="36"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="36"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5"/>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="36"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="36"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="36"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="51"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="36"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="36"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="36"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
@@ -2306,12 +4355,12 @@
       <c r="L16" s="15"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -2321,10 +4370,10 @@
       <c r="L17" s="15"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -2333,7 +4382,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
       <c r="H19" s="10"/>
@@ -2343,39 +4392,39 @@
       <c r="L19" s="15"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="46" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49" t="s">
+      <c r="G20" s="43"/>
+      <c r="H20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="50"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="51"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="H22" s="21"/>
@@ -2385,37 +4434,37 @@
       <c r="L22" s="10"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="50"/>
-    </row>
-    <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="41"/>
+    </row>
+    <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="6"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="51"/>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="36"/>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="J25" s="15"/>
@@ -2423,32 +4472,32 @@
       <c r="L25" s="7"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="50"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
       <c r="L26" s="15"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
       <c r="L27" s="15"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="9"/>
       <c r="D28" s="13"/>
@@ -2458,16 +4507,16 @@
       <c r="L28" s="15"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -2477,12 +4526,12 @@
       <c r="L29" s="15"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="51"/>
+    <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -2491,7 +4540,7 @@
       <c r="L30" s="15"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="D31" s="13"/>
@@ -2499,47 +4548,47 @@
       <c r="L31" s="10"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="46" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="41" t="s">
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="42"/>
-    </row>
-    <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+      <c r="M32" s="39"/>
+    </row>
+    <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
       <c r="B33" s="44"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="45"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="44"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="45"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="44"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="D34" s="13"/>
@@ -2547,34 +4596,49 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="C35" s="5"/>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="50"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="C36" s="5"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="51"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="H38" s="45"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -2589,27 +4653,12 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2620,363 +4669,1636 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D60858-96FD-428D-BE82-69C1DB933610}">
-  <dimension ref="D2:AA69"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
+    <row r="1" spans="1:29" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="V16" s="37"/>
-    </row>
-    <row r="17" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V17" s="37"/>
-    </row>
-    <row r="18" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V18" s="37"/>
-    </row>
-    <row r="19" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V19" s="37"/>
-    </row>
-    <row r="20" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V20" s="37"/>
-    </row>
-    <row r="21" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V21" s="37"/>
-    </row>
-    <row r="22" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V22" s="37"/>
-    </row>
-    <row r="23" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V23" s="37"/>
-    </row>
-    <row r="24" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V24" s="37"/>
-    </row>
-    <row r="25" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="V25" s="37"/>
-    </row>
-    <row r="29" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="AA29" s="37"/>
-    </row>
-    <row r="30" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="M30" s="37"/>
-      <c r="AA30" s="37"/>
-    </row>
-    <row r="31" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="M31" s="37"/>
-      <c r="AA31" s="37"/>
-    </row>
-    <row r="32" spans="13:27" x14ac:dyDescent="0.2">
-      <c r="M32" s="37"/>
-      <c r="AA32" s="37"/>
-    </row>
-    <row r="33" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="M33" s="37"/>
-      <c r="AA33" s="37"/>
-    </row>
-    <row r="34" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="M34" s="37"/>
-      <c r="AA34" s="37"/>
-    </row>
-    <row r="35" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="M35" s="37"/>
-      <c r="AA35" s="37"/>
-    </row>
-    <row r="36" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="M36" s="37"/>
-      <c r="AA36" s="37"/>
-    </row>
-    <row r="37" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="M37" s="37"/>
-      <c r="AA37" s="37"/>
-    </row>
-    <row r="38" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="M38" s="37"/>
-      <c r="AA38" s="37"/>
-    </row>
-    <row r="39" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="M39" s="37"/>
-    </row>
-    <row r="46" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-    </row>
-    <row r="47" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="E47" s="37"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-    </row>
-    <row r="48" spans="5:27" x14ac:dyDescent="0.2">
-      <c r="E48" s="37"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-    </row>
-    <row r="49" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E49" s="37"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-    </row>
-    <row r="50" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-    </row>
-    <row r="51" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E51" s="37"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-    </row>
-    <row r="52" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E52" s="37"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-    </row>
-    <row r="53" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E53" s="37"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-    </row>
-    <row r="54" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E54" s="37"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-    </row>
-    <row r="55" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E55" s="37"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-    </row>
-    <row r="56" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="Q56" s="37"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-    </row>
-    <row r="60" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="G60" s="37"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="Q60" s="37"/>
-    </row>
-    <row r="61" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="Q61" s="37"/>
-    </row>
-    <row r="62" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="G62" s="37"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="Q62" s="37"/>
-    </row>
-    <row r="63" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="G63" s="37"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="Q63" s="37"/>
-    </row>
-    <row r="64" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="G64" s="37"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="Q64" s="37"/>
-    </row>
-    <row r="65" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G65" s="37"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="Q65" s="37"/>
-    </row>
-    <row r="66" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G66" s="37"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="Q66" s="37"/>
-    </row>
-    <row r="67" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="Q67" s="37"/>
-    </row>
-    <row r="68" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G68" s="37"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="Q68" s="37"/>
-    </row>
-    <row r="69" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G69" s="37"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="Q69" s="37"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="48">
+        <v>0.37830950000000002</v>
+      </c>
+      <c r="B2" s="48">
+        <v>0.34011740000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="47">
+        <v>0.2173496</v>
+      </c>
+      <c r="B3" s="47">
+        <v>-0.18121229999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="47">
+        <v>0.41578949999999998</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0.34669159999999999</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="47">
+        <v>0.36542849999999999</v>
+      </c>
+      <c r="B5" s="47">
+        <v>0.18574009999999999</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="47">
+        <v>0.29334519999999997</v>
+      </c>
+      <c r="B6" s="47">
+        <v>-4.4634779999999999E-2</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="47">
+        <v>0.2474499</v>
+      </c>
+      <c r="B7" s="47">
+        <v>-0.1913136</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="47">
+        <v>0.37735289999999999</v>
+      </c>
+      <c r="B8" s="47">
+        <v>0.1063422</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="47">
+        <v>0.3521861</v>
+      </c>
+      <c r="B9" s="47">
+        <v>2.703214E-2</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
+        <v>0.60320070000000003</v>
+      </c>
+      <c r="B10" s="47">
+        <v>9.9058549999999995E-2</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
+        <v>0.57045539999999995</v>
+      </c>
+      <c r="B11" s="47">
+        <v>4.0919529999999997E-3</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="47">
+        <v>0.41855569999999997</v>
+      </c>
+      <c r="B12" s="47">
+        <v>0.30801640000000002</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="47">
+        <v>0.2623743</v>
+      </c>
+      <c r="B13" s="47">
+        <v>-0.18836030000000001</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="47">
+        <v>0.45549250000000002</v>
+      </c>
+      <c r="B14" s="47">
+        <v>0.31325500000000001</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="47">
+        <v>0.40681840000000002</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0.16056989999999999</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="47">
+        <v>0.33699469999999998</v>
+      </c>
+      <c r="B16" s="47">
+        <v>-5.8459459999999998E-2</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="47">
+        <v>0.2924427</v>
+      </c>
+      <c r="B17" s="47">
+        <v>-0.1982139</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="47">
+        <v>0.4190991</v>
+      </c>
+      <c r="B18" s="47">
+        <v>8.4469740000000001E-2</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="47">
+        <v>0.3947678</v>
+      </c>
+      <c r="B19" s="47">
+        <v>9.1867289999999994E-3</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="47">
+        <v>0.63975979999999999</v>
+      </c>
+      <c r="B20" s="47">
+        <v>7.3471320000000007E-2</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="47">
+        <v>0.6084965</v>
+      </c>
+      <c r="B21" s="47">
+        <v>-1.5777630000000001E-2</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+    </row>
+    <row r="33" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+    </row>
+    <row r="34" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+    </row>
+    <row r="35" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+    </row>
+    <row r="36" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+    </row>
+    <row r="37" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+    </row>
+    <row r="38" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+    </row>
+    <row r="39" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+    </row>
+    <row r="40" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+    </row>
+    <row r="41" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+    </row>
+    <row r="42" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+    </row>
+    <row r="43" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+    </row>
+    <row r="44" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+    </row>
+    <row r="45" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+    </row>
+    <row r="46" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+    </row>
+    <row r="47" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+    </row>
+    <row r="48" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+    </row>
+    <row r="49" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+    </row>
+    <row r="50" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+    </row>
+    <row r="51" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+    </row>
+    <row r="52" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+    </row>
+    <row r="53" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+    </row>
+    <row r="54" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+    </row>
+    <row r="55" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+    </row>
+    <row r="56" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+    </row>
+    <row r="60" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="G60" s="33"/>
+      <c r="Q60" s="33"/>
+    </row>
+    <row r="61" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="G61" s="33"/>
+      <c r="Q61" s="33"/>
+    </row>
+    <row r="62" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="G62" s="33"/>
+      <c r="Q62" s="33"/>
+    </row>
+    <row r="63" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="G63" s="33"/>
+      <c r="Q63" s="33"/>
+    </row>
+    <row r="64" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="G64" s="33"/>
+      <c r="Q64" s="33"/>
+    </row>
+    <row r="65" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G65" s="33"/>
+      <c r="Q65" s="33"/>
+    </row>
+    <row r="66" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G66" s="33"/>
+      <c r="Q66" s="33"/>
+    </row>
+    <row r="67" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G67" s="33"/>
+      <c r="Q67" s="33"/>
+    </row>
+    <row r="68" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G68" s="33"/>
+      <c r="Q68" s="33"/>
+    </row>
+    <row r="69" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G69" s="33"/>
+      <c r="Q69" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
